--- a/www.eia.gov/electricity/monthly/xls/table_6_02_c.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_02_c.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
-    <t>Table 6.2.C. Net Summer Capacity of Utility Scale Units Using Primarily Fossil Fuels and by State, October 2016 and 2015 (Megawatts)</t>
+    <t>Table 6.2.C. Net Summer Capacity of Utility Scale Units Using Primarily Fossil Fuels and by State, November 2016 and 2015 (Megawatts)</t>
   </si>
   <si>
     <t>Census Division
@@ -64,10 +64,10 @@
 </t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>New England</t>
@@ -1321,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="8">
-        <v>11893</v>
+        <v>11911</v>
       </c>
       <c r="C4" s="8">
         <v>11893</v>
@@ -1330,13 +1330,13 @@
         <v>1115.5</v>
       </c>
       <c r="E4" s="8">
-        <v>1106.0999999999999</v>
+        <v>1111.7</v>
       </c>
       <c r="F4" s="8">
         <v>647.1</v>
       </c>
       <c r="G4" s="8">
-        <v>641.5</v>
+        <v>644.29999999999995</v>
       </c>
       <c r="H4" s="8">
         <v>1955.3</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="8">
-        <v>22712.1</v>
+        <v>22730.1</v>
       </c>
       <c r="Q4" s="8">
-        <v>22744.9</v>
+        <v>22753.3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>422.2</v>
       </c>
       <c r="G5" s="10">
-        <v>416.3</v>
+        <v>419.1</v>
       </c>
       <c r="H5" s="10">
         <v>383.4</v>
@@ -1419,7 +1419,7 @@
         <v>6312.7</v>
       </c>
       <c r="Q5" s="10">
-        <v>6306.8</v>
+        <v>6309.6</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
         <v>335.3</v>
       </c>
       <c r="E7" s="10">
-        <v>325.89999999999998</v>
+        <v>331.5</v>
       </c>
       <c r="F7" s="10">
         <v>198</v>
@@ -1525,7 +1525,7 @@
         <v>9795</v>
       </c>
       <c r="Q7" s="10">
-        <v>9833.7000000000007</v>
+        <v>9839.2999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="10">
-        <v>1761.7</v>
+        <v>1779.7</v>
       </c>
       <c r="C9" s="10">
         <v>1761.7</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="10">
-        <v>1791.3</v>
+        <v>1809.3</v>
       </c>
       <c r="Q9" s="10">
         <v>1791.3</v>
@@ -1692,16 +1692,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="8">
-        <v>26270.2</v>
+        <v>26296.799999999999</v>
       </c>
       <c r="C11" s="8">
-        <v>24091.200000000001</v>
+        <v>24621.1</v>
       </c>
       <c r="D11" s="8">
         <v>7599.7</v>
       </c>
       <c r="E11" s="8">
-        <v>7539.7</v>
+        <v>7599.7</v>
       </c>
       <c r="F11" s="8">
         <v>13533.8</v>
@@ -1734,10 +1734,10 @@
         <v>123.8</v>
       </c>
       <c r="P11" s="8">
-        <v>69297.3</v>
+        <v>69323.899999999994</v>
       </c>
       <c r="Q11" s="8">
-        <v>67425.7</v>
+        <v>68015.600000000006</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1748,13 +1748,13 @@
         <v>8104.3</v>
       </c>
       <c r="C12" s="10">
-        <v>7527.5</v>
+        <v>8047.5</v>
       </c>
       <c r="D12" s="10">
         <v>2817.1</v>
       </c>
       <c r="E12" s="10">
-        <v>2757.1</v>
+        <v>2817.1</v>
       </c>
       <c r="F12" s="10">
         <v>1109.2</v>
@@ -1790,7 +1790,7 @@
         <v>13584.3</v>
       </c>
       <c r="Q12" s="10">
-        <v>12955.5</v>
+        <v>13535.5</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1798,10 +1798,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="10">
-        <v>8095.4</v>
+        <v>8122</v>
       </c>
       <c r="C13" s="10">
-        <v>8059.2</v>
+        <v>8069.1</v>
       </c>
       <c r="D13" s="10">
         <v>3105.2</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <v>25956.400000000001</v>
+        <v>25983</v>
       </c>
       <c r="Q13" s="10">
-        <v>26300.6</v>
+        <v>26310.5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>3283.4</v>
       </c>
       <c r="H15" s="8">
-        <v>62768.3</v>
+        <v>62758.3</v>
       </c>
       <c r="I15" s="8">
         <v>66347.899999999994</v>
@@ -1946,7 +1946,7 @@
         <v>1173.0999999999999</v>
       </c>
       <c r="P15" s="8">
-        <v>113815.9</v>
+        <v>113805.9</v>
       </c>
       <c r="Q15" s="8">
         <v>116595.5</v>
@@ -2187,7 +2187,7 @@
         <v>319.89999999999998</v>
       </c>
       <c r="H20" s="10">
-        <v>7371.4</v>
+        <v>7361.4</v>
       </c>
       <c r="I20" s="10">
         <v>7629</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="10">
-        <v>14350.1</v>
+        <v>14340.1</v>
       </c>
       <c r="Q20" s="10">
         <v>14607.7</v>
@@ -2237,13 +2237,13 @@
         <v>3901.8</v>
       </c>
       <c r="G21" s="8">
-        <v>3793.1</v>
+        <v>3617.1</v>
       </c>
       <c r="H21" s="8">
         <v>35132.400000000001</v>
       </c>
       <c r="I21" s="8">
-        <v>36376.1</v>
+        <v>36198.1</v>
       </c>
       <c r="J21" s="8">
         <v>32</v>
@@ -2255,7 +2255,7 @@
         <v>4096.1000000000004</v>
       </c>
       <c r="M21" s="8">
-        <v>4094.6</v>
+        <v>4096</v>
       </c>
       <c r="N21" s="8">
         <v>8.4</v>
@@ -2267,7 +2267,7 @@
         <v>60621.4</v>
       </c>
       <c r="Q21" s="8">
-        <v>61615.9</v>
+        <v>61263.3</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2343,13 +2343,13 @@
         <v>2054.5</v>
       </c>
       <c r="G23" s="10">
-        <v>2200</v>
+        <v>2024</v>
       </c>
       <c r="H23" s="10">
         <v>4687.2</v>
       </c>
       <c r="I23" s="10">
-        <v>4865.2</v>
+        <v>4687.2</v>
       </c>
       <c r="J23" s="10">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>537.29999999999995</v>
       </c>
       <c r="M23" s="10">
-        <v>535.6</v>
+        <v>538.1</v>
       </c>
       <c r="N23" s="10">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>9716.7999999999993</v>
       </c>
       <c r="Q23" s="10">
-        <v>9934.6</v>
+        <v>9583.1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>799.4</v>
       </c>
       <c r="M24" s="10">
-        <v>800.5</v>
+        <v>799.4</v>
       </c>
       <c r="N24" s="10">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>10132.6</v>
       </c>
       <c r="Q24" s="10">
-        <v>10241.700000000001</v>
+        <v>10240.6</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2649,7 +2649,7 @@
         <v>51253.3</v>
       </c>
       <c r="C29" s="8">
-        <v>48598.2</v>
+        <v>48550.2</v>
       </c>
       <c r="D29" s="8">
         <v>31111.9</v>
@@ -2658,16 +2658,16 @@
         <v>31110.1</v>
       </c>
       <c r="F29" s="8">
-        <v>7071.1</v>
+        <v>7112.1</v>
       </c>
       <c r="G29" s="8">
-        <v>7176.8</v>
+        <v>7157.8</v>
       </c>
       <c r="H29" s="8">
-        <v>58322.6</v>
+        <v>58281.599999999999</v>
       </c>
       <c r="I29" s="8">
-        <v>60166.6</v>
+        <v>59261.599999999999</v>
       </c>
       <c r="J29" s="8">
         <v>83.8</v>
@@ -2679,7 +2679,7 @@
         <v>11782.4</v>
       </c>
       <c r="M29" s="8">
-        <v>12069.4</v>
+        <v>11981.4</v>
       </c>
       <c r="N29" s="8">
         <v>135</v>
@@ -2691,7 +2691,7 @@
         <v>159760.1</v>
       </c>
       <c r="Q29" s="8">
-        <v>159339.9</v>
+        <v>158279.9</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <v>27505.599999999999</v>
       </c>
       <c r="C32" s="10">
-        <v>26293.599999999999</v>
+        <v>26245.599999999999</v>
       </c>
       <c r="D32" s="10">
         <v>7500.2</v>
@@ -2820,7 +2820,7 @@
         <v>3027.7</v>
       </c>
       <c r="G32" s="10">
-        <v>3138.7</v>
+        <v>3119.7</v>
       </c>
       <c r="H32" s="10">
         <v>10234</v>
@@ -2838,7 +2838,7 @@
         <v>5844.9</v>
       </c>
       <c r="M32" s="10">
-        <v>5972.9</v>
+        <v>5936.9</v>
       </c>
       <c r="N32" s="10">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>54112.4</v>
       </c>
       <c r="Q32" s="10">
-        <v>53477.599999999999</v>
+        <v>53374.6</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>525.4</v>
       </c>
       <c r="M36" s="10">
-        <v>577.4</v>
+        <v>525.4</v>
       </c>
       <c r="N36" s="10">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>11633</v>
       </c>
       <c r="Q36" s="10">
-        <v>11687.2</v>
+        <v>11635.2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -3091,7 +3091,7 @@
         <v>4264.3</v>
       </c>
       <c r="I37" s="10">
-        <v>4934.3</v>
+        <v>4609.3</v>
       </c>
       <c r="J37" s="10">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>17948.5</v>
       </c>
       <c r="Q37" s="10">
-        <v>17170.8</v>
+        <v>16845.8</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -3135,16 +3135,16 @@
         <v>1071.3</v>
       </c>
       <c r="F38" s="10">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
       </c>
       <c r="H38" s="10">
-        <v>12999</v>
+        <v>12958</v>
       </c>
       <c r="I38" s="10">
-        <v>13661</v>
+        <v>13081</v>
       </c>
       <c r="J38" s="10">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>14163.3</v>
       </c>
       <c r="Q38" s="10">
-        <v>14743.3</v>
+        <v>14163.3</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>29432.400000000001</v>
       </c>
       <c r="I39" s="8">
-        <v>31808.400000000001</v>
+        <v>31803.4</v>
       </c>
       <c r="J39" s="8">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>65848.3</v>
       </c>
       <c r="Q39" s="8">
-        <v>68056.3</v>
+        <v>68051.3</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -3303,7 +3303,7 @@
         <v>13027.7</v>
       </c>
       <c r="I41" s="10">
-        <v>13441.7</v>
+        <v>13436.7</v>
       </c>
       <c r="J41" s="10">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>19004.5</v>
       </c>
       <c r="Q41" s="10">
-        <v>19158.5</v>
+        <v>19153.5</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -4189,16 +4189,16 @@
         <v>25151.4</v>
       </c>
       <c r="D58" s="8">
-        <v>11658.7</v>
+        <v>11949.7</v>
       </c>
       <c r="E58" s="8">
-        <v>11505.2</v>
+        <v>11509.2</v>
       </c>
       <c r="F58" s="8">
         <v>11890.1</v>
       </c>
       <c r="G58" s="8">
-        <v>12666.5</v>
+        <v>12668.7</v>
       </c>
       <c r="H58" s="8">
         <v>2015</v>
@@ -4225,10 +4225,10 @@
         <v>209.3</v>
       </c>
       <c r="P58" s="8">
-        <v>52205.4</v>
+        <v>52496.4</v>
       </c>
       <c r="Q58" s="8">
-        <v>51986.7</v>
+        <v>51992.9</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -4242,16 +4242,16 @@
         <v>19571.3</v>
       </c>
       <c r="D59" s="10">
-        <v>10763.5</v>
+        <v>11054.5</v>
       </c>
       <c r="E59" s="10">
-        <v>10610</v>
+        <v>10614</v>
       </c>
       <c r="F59" s="10">
         <v>11638.1</v>
       </c>
       <c r="G59" s="10">
-        <v>12414.5</v>
+        <v>12416.7</v>
       </c>
       <c r="H59" s="10">
         <v>90</v>
@@ -4278,10 +4278,10 @@
         <v>209.3</v>
       </c>
       <c r="P59" s="10">
-        <v>43017.9</v>
+        <v>43308.9</v>
       </c>
       <c r="Q59" s="10">
-        <v>43319.199999999997</v>
+        <v>43325.4</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="8">
-        <v>2568.6999999999998</v>
+        <v>2591.5</v>
       </c>
       <c r="M62" s="8">
         <v>2584.6999999999998</v>
@@ -4437,7 +4437,7 @@
         <v>9.6</v>
       </c>
       <c r="P62" s="8">
-        <v>4159.3999999999996</v>
+        <v>4182.2</v>
       </c>
       <c r="Q62" s="8">
         <v>4125.3999999999996</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="10">
-        <v>701.1</v>
+        <v>723.9</v>
       </c>
       <c r="M63" s="10">
         <v>702.1</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="10">
-        <v>2102.1999999999998</v>
+        <v>2125</v>
       </c>
       <c r="Q63" s="10">
         <v>2053.1999999999998</v>
@@ -4554,28 +4554,28 @@
         <v>74</v>
       </c>
       <c r="B65" s="8">
-        <v>239405</v>
+        <v>239449.60000000001</v>
       </c>
       <c r="C65" s="8">
-        <v>233536.1</v>
+        <v>234018</v>
       </c>
       <c r="D65" s="8">
-        <v>124790.2</v>
+        <v>125081.2</v>
       </c>
       <c r="E65" s="8">
-        <v>123536</v>
+        <v>123605.6</v>
       </c>
       <c r="F65" s="8">
-        <v>83387.3</v>
+        <v>83428.3</v>
       </c>
       <c r="G65" s="8">
-        <v>83034.399999999994</v>
+        <v>82844.399999999994</v>
       </c>
       <c r="H65" s="8">
-        <v>271642.90000000002</v>
+        <v>271591.90000000002</v>
       </c>
       <c r="I65" s="8">
-        <v>282342.2</v>
+        <v>281254.2</v>
       </c>
       <c r="J65" s="8">
         <v>1540.3</v>
@@ -4584,10 +4584,10 @@
         <v>1744.3</v>
       </c>
       <c r="L65" s="8">
-        <v>34852.800000000003</v>
+        <v>34875.599999999999</v>
       </c>
       <c r="M65" s="8">
-        <v>35187.599999999999</v>
+        <v>35101</v>
       </c>
       <c r="N65" s="8">
         <v>2497.1999999999998</v>
@@ -4596,10 +4596,10 @@
         <v>2530.4</v>
       </c>
       <c r="P65" s="8">
-        <v>758115.7</v>
+        <v>758464.1</v>
       </c>
       <c r="Q65" s="8">
-        <v>761911</v>
+        <v>761097.9</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
